--- a/LOD 수정 일정표.xlsx
+++ b/LOD 수정 일정표.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.97.45139"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahj03\Documents\GitHub\Life_of_Day\일정표\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D609E7A-FBEC-4634-B86C-C349982BC60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AM$33</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>10월</t>
   </si>
@@ -96,8 +90,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>완료보고</t>
     </r>
@@ -106,20 +98,15 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="배달의민족 주아"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>중간보고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>마이페이지/로그인기능/회원가입 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -130,12 +117,9 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -146,12 +130,9 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -162,192 +143,270 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="배달의민족 주아"/>
+      </rPr>
+      <t>완료보고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="배달의민족 주아"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="43">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
+      <name val="나눔고딕OTF"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕OTF"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="나눔고딕OTF"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕OTF"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
+      <name val="나눔고딕"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="나눔고딕"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="20.0"/>
+      <name val="나눔고딕"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="20.0"/>
+      <name val="한컴 고딕"/>
       <color rgb="FF000000"/>
-      <name val="한컴 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
       <color theme="10"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
       <color theme="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="배달의민족 주아"/>
       <color rgb="FF000000"/>
-      <name val="배달의민족 주아"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="배달의민족 한나는 열한살"/>
       <color rgb="FF000000"/>
-      <name val="배달의민족 한나는 열한살"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="배달의민족 한나는 열한살"/>
       <color rgb="FF000000"/>
-      <name val="배달의민족 한나는 열한살"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="배달의민족 한나는 열한살"/>
       <color rgb="FF000000"/>
-      <name val="배달의민족 한나는 열한살"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="6" tint="0.79995117038483843"/>
+      <sz val="8.0"/>
       <name val="배달의민족 한나는 열한살"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="6" tint="0.799950"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="20.0"/>
+      <name val="배달의민족 한나는 열한살"/>
       <color rgb="FF000000"/>
-      <name val="배달의민족 한나는 열한살"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="6" tint="0.79995117038483843"/>
+      <sz val="9.0"/>
       <name val="배달의민족 한나는 열한살"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
+      <sz val="8.0"/>
       <name val="배달의민족 한나는 열한살"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FFFF0000"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10.0"/>
+      <name val="배달의민족 주아"/>
       <color rgb="FF000000"/>
-      <name val="배달의민족 한나는 열한살"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="배달의민족 한나는 열한살"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <sz val="11.0"/>
+      <name val="Arial Unicode MS"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9.0"/>
+      <name val="배달의민족 주아"/>
       <color rgb="FF000000"/>
-      <name val="배달의민족 주아"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FFFF0000"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="18.0"/>
+      <name val="돋움"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="돋움"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="돋움"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="배달의민족 주아"/>
-      <family val="3"/>
-      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="돋움"/>
+      <color/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="돋움"/>
+      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -357,24 +416,215 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799950"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.249980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="72">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -385,7 +635,6 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -394,7 +643,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -403,7 +651,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -412,70 +659,64 @@
         <color rgb="FFDDDDDD"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349990"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="thin">
         <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349990"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349990"/>
       </left>
       <right/>
       <top style="thin">
@@ -484,7 +725,6 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -497,7 +737,6 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -510,36 +749,32 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
       <right style="dashed">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0" tint="-0.049990"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349990"/>
       </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -550,7 +785,6 @@
         <color rgb="FF969696"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -559,36 +793,33 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349990"/>
       </right>
       <top style="thin">
         <color rgb="FF969696"/>
@@ -596,20 +827,18 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -617,12 +846,11 @@
         <color rgb="FF969696"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -630,17 +858,16 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="thin">
         <color rgb="FF969696"/>
@@ -648,11 +875,10 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right/>
       <top style="thin">
@@ -661,36 +887,33 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </right>
       <top style="thin">
         <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </right>
       <top style="thin">
         <color rgb="FF969696"/>
@@ -698,31 +921,28 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -731,9 +951,8 @@
         <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -744,9 +963,8 @@
         <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -757,9 +975,8 @@
         <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -772,7 +989,6 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -783,7 +999,6 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -796,7 +1011,6 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -807,7 +1021,6 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -818,7 +1031,6 @@
         <color rgb="FF969696"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -829,9 +1041,8 @@
         <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -839,12 +1050,11 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.249950"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -857,7 +1067,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -870,57 +1079,52 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -928,12 +1132,11 @@
         <color rgb="FF969696"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -941,12 +1144,11 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -954,12 +1156,11 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -970,7 +1171,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -979,7 +1179,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -990,7 +1189,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1001,7 +1199,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1010,7 +1207,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1021,11 +1217,10 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349990"/>
       </left>
       <right/>
       <top style="thin">
@@ -1034,7 +1229,6 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1045,12 +1239,11 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1058,11 +1251,10 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </left>
       <right/>
       <top style="thin">
@@ -1071,7 +1263,6 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1080,9 +1271,8 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
+        <color theme="0" tint="-0.349990"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -1095,564 +1285,753 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="63" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="66" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="67" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="66" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="68" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="69" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="71" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="71" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="5" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="4" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="7" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1671,27 +2050,19 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2160270" y="1363980"/>
+          <a:off x="2154555" y="1360170"/>
           <a:ext cx="841375" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent6"/>
         </a:solidFill>
@@ -1701,10 +2072,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1717,6 +2087,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1735,27 +2112,19 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="40" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2998470" y="1572260"/>
+          <a:off x="2992755" y="1568450"/>
           <a:ext cx="422275" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent6"/>
         </a:solidFill>
@@ -1765,10 +2134,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1781,6 +2149,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1799,27 +2174,19 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="43" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3848100" y="2018030"/>
+          <a:off x="3842385" y="2014220"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="60000"/>
@@ -1832,10 +2199,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1850,6 +2216,15 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1868,27 +2243,19 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="44" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4255770" y="2235200"/>
+          <a:off x="4250055" y="2231390"/>
           <a:ext cx="429895" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="60000"/>
@@ -1901,10 +2268,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1919,6 +2285,15 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1937,27 +2312,19 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="45" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3848100" y="2452370"/>
+          <a:off x="3842385" y="2448560"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="60000"/>
@@ -1970,10 +2337,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1988,6 +2354,15 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2006,27 +2381,19 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="46" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3848100" y="2658110"/>
+          <a:off x="3842385" y="2654300"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="60000"/>
@@ -2039,10 +2406,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2057,6 +2423,15 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2075,27 +2450,19 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="47" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4267200" y="2875280"/>
+          <a:off x="4261485" y="2871470"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="60000"/>
@@ -2108,10 +2475,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2126,6 +2492,15 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2144,27 +2519,19 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="48" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4267200" y="3103880"/>
+          <a:off x="4261485" y="3100070"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="60000"/>
@@ -2177,10 +2544,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2195,6 +2561,15 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2213,27 +2588,19 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="49" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4515971" y="3496534"/>
-          <a:ext cx="414206" cy="66675"/>
+          <a:off x="4669155" y="3317240"/>
+          <a:ext cx="429895" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="CC9900"/>
         </a:solidFill>
@@ -2243,10 +2610,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2259,6 +2625,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2277,27 +2650,19 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="50" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5361214" y="3591560"/>
-          <a:ext cx="411390" cy="66675"/>
+          <a:off x="5507355" y="3740150"/>
+          <a:ext cx="422275" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="CC9900"/>
         </a:solidFill>
@@ -2307,10 +2672,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2323,6 +2687,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2341,27 +2712,19 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="51" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5780859" y="3807097"/>
-          <a:ext cx="400594" cy="66675"/>
+          <a:off x="5937885" y="3968750"/>
+          <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:lumMod val="75000"/>
@@ -2373,10 +2736,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2389,6 +2751,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2407,27 +2776,19 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="56" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6177643" y="4215311"/>
-          <a:ext cx="819603" cy="66675"/>
+          <a:off x="6345555" y="4403090"/>
+          <a:ext cx="841375" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent4">
             <a:lumMod val="75000"/>
@@ -2439,10 +2800,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2455,6 +2815,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2473,27 +2840,19 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="58" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7402286" y="4827633"/>
-          <a:ext cx="419009" cy="66675"/>
+          <a:off x="7602855" y="5054600"/>
+          <a:ext cx="429895" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent4">
             <a:lumMod val="75000"/>
@@ -2505,10 +2864,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2521,6 +2879,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2539,27 +2904,19 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="59" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7810500" y="5042535"/>
-          <a:ext cx="419009" cy="66675"/>
+          <a:off x="8021955" y="5282565"/>
+          <a:ext cx="429895" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="CC9900"/>
         </a:solidFill>
@@ -2569,10 +2926,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2585,6 +2941,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2603,27 +2966,19 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="60" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5769429" y="4011204"/>
-          <a:ext cx="819603" cy="66675"/>
+          <a:off x="5926455" y="4185920"/>
+          <a:ext cx="841375" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:lumMod val="75000"/>
@@ -2635,10 +2990,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2651,6 +3005,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2669,27 +3030,19 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="61" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6585857" y="4441644"/>
-          <a:ext cx="819604" cy="66675"/>
+          <a:off x="6764655" y="4642485"/>
+          <a:ext cx="841375" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent4">
             <a:lumMod val="75000"/>
@@ -2701,10 +3054,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2717,6 +3069,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2735,27 +3094,19 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3417570" y="1789430"/>
+          <a:off x="3411855" y="1785620"/>
           <a:ext cx="422275" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent6"/>
         </a:solidFill>
@@ -2765,10 +3116,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2781,6 +3131,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2799,27 +3156,19 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Rectangle 1026">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="Rectangle 1026"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7008676" y="4647656"/>
-          <a:ext cx="393610" cy="58420"/>
+          <a:off x="7198360" y="4861560"/>
+          <a:ext cx="404495" cy="58420"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:schemeClr val="accent4">
             <a:lumMod val="75000"/>
@@ -2831,10 +3180,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2847,6 +3195,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2855,37 +3210,29 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
+      <xdr:colOff>8255</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>81253</xdr:rowOff>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>870</xdr:colOff>
+      <xdr:colOff>635</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>147928</xdr:rowOff>
+      <xdr:rowOff>147955</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B70248-A693-41B8-9949-1D22FC40C6B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8154958" y="5415253"/>
-          <a:ext cx="396000" cy="66675"/>
+          <a:off x="8449310" y="5491480"/>
+          <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="CC9900"/>
         </a:solidFill>
@@ -2895,10 +3242,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2911,6 +3257,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2921,35 +3274,27 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>66260</xdr:rowOff>
+      <xdr:rowOff>66040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>3176</xdr:colOff>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>132935</xdr:rowOff>
+      <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1D8455-133F-44C5-BEE5-7758A2239F04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4878457" y="3420717"/>
-          <a:ext cx="400741" cy="66675"/>
+          <a:off x="5088255" y="3521710"/>
+          <a:ext cx="422275" cy="66675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="CC9900"/>
         </a:solidFill>
@@ -2959,10 +3304,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2975,6 +3319,13 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3339,43 +3690,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT49"/>
+  <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AO14" sqref="AO14"/>
+    <sheetView topLeftCell="A3" showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="54" width="2.44140625" style="2" customWidth="1"/>
-    <col min="55" max="55" width="2.33203125" style="2" customWidth="1"/>
-    <col min="56" max="56" width="8.88671875" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" style="2" width="2.78277776" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="2" width="22.67166731" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="54" style="2" width="2.44944439" customWidth="1" outlineLevel="0"/>
+    <col min="55" max="55" style="2" width="2.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="56" max="56" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="57" max="16384" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="5.25" customHeight="1">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+    <row r="1" spans="1:46" ht="5.250000" customHeight="1">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -3407,23 +3758,23 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="21" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
+    <row r="2" spans="1:46" ht="21.000000" customHeight="1">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -3455,13 +3806,13 @@
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
     </row>
-    <row r="3" spans="1:46" ht="3" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+    <row r="3" spans="1:46" ht="3.000000" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3503,43 +3854,43 @@
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
     </row>
-    <row r="4" spans="1:46" ht="24.75" customHeight="1">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:46" ht="24.750000" customHeight="1">
+      <c r="A4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="49"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="48"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
@@ -3553,7 +3904,7 @@
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
     </row>
-    <row r="5" spans="1:46" ht="9.75" customHeight="1">
+    <row r="5" spans="1:46" ht="9.750000" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -3601,7 +3952,7 @@
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
     </row>
-    <row r="6" spans="1:46" ht="4.5" customHeight="1">
+    <row r="6" spans="1:46" ht="4.500000" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -3638,503 +3989,503 @@
       <c r="AH6" s="17"/>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:46" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:46" ht="17.100000" customHeight="1">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="53" t="s">
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="53" t="s">
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="56"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="55"/>
     </row>
-    <row r="8" spans="1:46" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:46" ht="17.100000" customHeight="1">
+      <c r="A8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="29">
         <v>1</v>
       </c>
       <c r="D8" s="30"/>
-      <c r="E8" s="59">
+      <c r="E8" s="58">
         <v>2</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="59">
+      <c r="F8" s="59"/>
+      <c r="G8" s="58">
         <v>3</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="59">
+      <c r="H8" s="59"/>
+      <c r="I8" s="58">
         <v>4</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62">
+      <c r="J8" s="60"/>
+      <c r="K8" s="61">
         <v>1</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="59">
+      <c r="L8" s="59"/>
+      <c r="M8" s="58">
         <v>2</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="59">
+      <c r="N8" s="59"/>
+      <c r="O8" s="58">
         <v>3</v>
       </c>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="64" t="s">
+      <c r="P8" s="62"/>
+      <c r="Q8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="65"/>
-      <c r="S8" s="59">
+      <c r="R8" s="64"/>
+      <c r="S8" s="58">
         <v>5</v>
       </c>
-      <c r="T8" s="61"/>
-      <c r="U8" s="62">
+      <c r="T8" s="60"/>
+      <c r="U8" s="61">
         <v>1</v>
       </c>
-      <c r="V8" s="60"/>
-      <c r="W8" s="59">
+      <c r="V8" s="59"/>
+      <c r="W8" s="58">
         <v>2</v>
       </c>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="59">
+      <c r="X8" s="59"/>
+      <c r="Y8" s="58">
         <v>3</v>
       </c>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="59">
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="58">
         <v>4</v>
       </c>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="62">
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="61">
         <v>1</v>
       </c>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="59">
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="58">
         <v>2</v>
       </c>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="67" t="s">
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AH8" s="68"/>
+      <c r="AH8" s="67"/>
     </row>
-    <row r="9" spans="1:46" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:46" ht="17.100000" customHeight="1">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="81"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="78"/>
     </row>
-    <row r="10" spans="1:46" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:46" ht="17.100000" customHeight="1">
+      <c r="A10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="93"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="33"/>
     </row>
-    <row r="11" spans="1:46" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="96" t="s">
+    <row r="11" spans="1:46" ht="17.100000" customHeight="1">
+      <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="93"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="33"/>
     </row>
-    <row r="12" spans="1:46" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="96" t="s">
+    <row r="12" spans="1:46" ht="17.100000" customHeight="1">
+      <c r="A12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="91"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="93"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="33"/>
     </row>
-    <row r="13" spans="1:46" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="96" t="s">
+    <row r="13" spans="1:46" ht="17.100000" customHeight="1">
+      <c r="A13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="93"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="33"/>
     </row>
-    <row r="14" spans="1:46" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="96" t="s">
+    <row r="14" spans="1:46" ht="17.100000" customHeight="1">
+      <c r="A14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="91"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="93"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="33"/>
     </row>
-    <row r="15" spans="1:46" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:46" ht="17.100000" customHeight="1">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="91"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="93"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="33"/>
     </row>
-    <row r="16" spans="1:46" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:46" ht="17.100000" customHeight="1">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="93"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="33"/>
     </row>
-    <row r="17" spans="1:34" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:34" ht="17.100000" customHeight="1">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="93"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="33"/>
     </row>
-    <row r="18" spans="1:34" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="96" t="s">
+    <row r="18" spans="1:34" ht="17.100000" customHeight="1">
+      <c r="A18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="91"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="93"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="33"/>
     </row>
-    <row r="19" spans="1:34" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:34" ht="17.100000" customHeight="1">
       <c r="A19" s="34"/>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="103" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="36"/>
@@ -4154,7 +4505,7 @@
       <c r="Q19" s="41"/>
       <c r="R19" s="42"/>
       <c r="S19" s="41"/>
-      <c r="T19" s="43"/>
+      <c r="T19" s="16"/>
       <c r="U19" s="13"/>
       <c r="V19" s="14"/>
       <c r="W19" s="15"/>
@@ -4170,352 +4521,352 @@
       <c r="AG19" s="15"/>
       <c r="AH19" s="33"/>
     </row>
-    <row r="20" spans="1:34" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:34" ht="17.100000" customHeight="1">
       <c r="A20" s="34"/>
       <c r="B20" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="105"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="91"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="93"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="33"/>
     </row>
-    <row r="21" spans="1:34" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="96" t="s">
+    <row r="21" spans="1:34" ht="17.100000" customHeight="1">
+      <c r="A21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="91"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="93"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="33"/>
     </row>
-    <row r="22" spans="1:34" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="96" t="s">
+    <row r="22" spans="1:34" ht="17.100000" customHeight="1">
+      <c r="A22" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="105"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="112"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="112"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="93"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="33"/>
     </row>
-    <row r="23" spans="1:34" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="131" t="s">
+    <row r="23" spans="1:34" ht="17.100000" customHeight="1">
+      <c r="A23" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="112"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="105"/>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="112"/>
-      <c r="AE23" s="89"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="93"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="33"/>
     </row>
-    <row r="24" spans="1:34" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="96" t="s">
+    <row r="24" spans="1:34" ht="17.100000" customHeight="1">
+      <c r="A24" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="112"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="93"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="33"/>
     </row>
-    <row r="25" spans="1:34" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="96" t="s">
+    <row r="25" spans="1:34" ht="17.100000" customHeight="1">
+      <c r="A25" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="112"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="105"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="112"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="93"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="33"/>
     </row>
-    <row r="26" spans="1:34" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="96" t="s">
+    <row r="26" spans="1:34" ht="17.100000" customHeight="1">
+      <c r="A26" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="105"/>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="93"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="33"/>
     </row>
-    <row r="27" spans="1:34" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="115" t="s">
+    <row r="27" spans="1:34" ht="17.100000" customHeight="1">
+      <c r="A27" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="125"/>
-      <c r="AD27" s="126"/>
-      <c r="AE27" s="127"/>
-      <c r="AF27" s="126"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="129"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="100"/>
     </row>
-    <row r="28" spans="1:34" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="115" t="s">
-        <v>22</v>
+    <row r="28" spans="1:34" ht="17.100000" customHeight="1">
+      <c r="A28" s="104" t="s">
+        <v>28</v>
       </c>
-      <c r="B28" s="116"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="125"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="126"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="125"/>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="127"/>
-      <c r="AF28" s="126"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="129"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="100"/>
     </row>
-    <row r="29" spans="1:34" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:34" ht="17.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:34" ht="17.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:34" ht="17.100000000000001" customHeight="1">
+    <row r="29" ht="17.100000" customHeight="1"/>
+    <row r="30" ht="17.100000" customHeight="1"/>
+    <row r="31" ht="17.100000" customHeight="1"/>
+    <row r="32" spans="1:34" ht="17.100000" customHeight="1">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -4541,11 +4892,11 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:46" ht="18" customHeight="1">
+    <row r="33" spans="1:46" ht="18.000000" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:46" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:46" ht="17.100000" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="4"/>
@@ -4581,7 +4932,7 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
     </row>
-    <row r="35" spans="1:46" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:46" ht="17.100000" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4629,7 +4980,7 @@
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
     </row>
-    <row r="36" spans="1:46" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:46" ht="17.100000" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="10"/>
@@ -4677,7 +5028,7 @@
       <c r="AS36" s="1"/>
       <c r="AT36" s="1"/>
     </row>
-    <row r="37" spans="1:46" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:46" ht="17.100000" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4723,7 +5074,7 @@
       <c r="AQ37" s="10"/>
       <c r="AR37" s="10"/>
     </row>
-    <row r="38" spans="1:46" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:46" ht="17.100000" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4769,7 +5120,7 @@
       <c r="AQ38" s="10"/>
       <c r="AR38" s="10"/>
     </row>
-    <row r="39" spans="1:46" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:46" ht="20.100000" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4813,7 +5164,7 @@
       <c r="AO39" s="10"/>
       <c r="AP39" s="10"/>
     </row>
-    <row r="40" spans="1:46" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:46" ht="20.100000" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="AI40" s="10"/>
@@ -4827,157 +5178,199 @@
       <c r="AQ40" s="10"/>
       <c r="AR40" s="10"/>
     </row>
-    <row r="41" spans="1:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" spans="1:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" spans="1:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="44" spans="1:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="45" spans="1:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="46" spans="1:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="47" spans="1:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="48" spans="1:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="49" ht="20.100000000000001" customHeight="1"/>
+    <row r="41" ht="20.100000" customHeight="1"/>
+    <row r="42" ht="20.100000" customHeight="1"/>
+    <row r="43" ht="20.100000" customHeight="1"/>
+    <row r="44" ht="20.100000" customHeight="1"/>
+    <row r="45" ht="20.100000" customHeight="1"/>
+    <row r="46" ht="20.100000" customHeight="1"/>
+    <row r="47" ht="20.100000" customHeight="1"/>
+    <row r="48" ht="20.100000" customHeight="1"/>
+    <row r="49" ht="20.100000" customHeight="1"/>
   </sheetData>
   <mergeCells count="342">
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AB7"/>
+    <mergeCell ref="AC7:AH7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="W18:X18"/>
@@ -5002,189 +5395,147 @@
     <mergeCell ref="AC20:AD20"/>
     <mergeCell ref="AE20:AF20"/>
     <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AB7"/>
-    <mergeCell ref="AC7:AH7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" errors="blank" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.59" right="0.59" top="0.59" bottom="0.35" header="0.00" footer="0.00"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>